--- a/gridTeam5.xlsx
+++ b/gridTeam5.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="241">
   <si>
     <t>carrying capacity</t>
   </si>
@@ -874,6 +874,12 @@
   </si>
   <si>
     <t>YES with violations</t>
+  </si>
+  <si>
+    <t>y with violations</t>
+  </si>
+  <si>
+    <t>yes with violations</t>
   </si>
 </sst>
 </file>
@@ -1562,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A142" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B127" sqref="B127"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A151" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1841,7 +1847,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
         <v>86</v>
@@ -2014,7 +2020,7 @@
         <v>184</v>
       </c>
       <c r="B50" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C50" t="s">
         <v>185</v>
@@ -2071,7 +2077,7 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C57" t="s">
         <v>98</v>
@@ -2129,8 +2135,8 @@
       <c r="A63" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>236</v>
+      <c r="B63" t="s">
+        <v>237</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2293,8 +2299,8 @@
       <c r="A80" t="s">
         <v>43</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>236</v>
+      <c r="B80" t="s">
+        <v>240</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>206</v>
@@ -2568,8 +2574,8 @@
       <c r="A108" t="s">
         <v>55</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>236</v>
+      <c r="B108" t="s">
+        <v>239</v>
       </c>
       <c r="C108" t="s">
         <v>221</v>
@@ -2733,7 +2739,7 @@
         <v>64</v>
       </c>
       <c r="B126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>135</v>
